--- a/data/590_D_label_case.xlsx
+++ b/data/590_D_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,6 +1278,830 @@
         <v>0.001240881222031761</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.001225248486299653</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.0141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.001239725453614622</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.0281</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.001275983552968019</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.0422</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.001252671953999047</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.0562</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.00125067906528627</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.0702</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.001278385056707519</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.0842</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001327186860820892</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.0982</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.001315129261497095</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.1121</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.001325739407233225</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.1261</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.001370596236770013</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.001445630209651771</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.1538</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.001449493971696557</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.1676</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.001477573887831566</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.1814</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.001543837372277344</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.1951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.00164843986394818</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.2087</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.00165896401235282</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.2223</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.00169872787737489</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.2359</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.001782877978320213</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.2495</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.001912642009186639</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.00193241350461265</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.2761</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.001993623840900956</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.002110153561835004</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.3027</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.002286549714455942</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.3158</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.002301040955552676</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.3288</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.002365219249180798</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.3418</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0024983954876952</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.3548</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.002700089317567756</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.3674</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.002707507513256471</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.3801</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.002774237701197535</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.3928</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.002921537316381018</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.4054</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.003153382380867794</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.4177</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.003156865462511008</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.003229682399248921</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.4422</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.003399845525857337</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.4545</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.003663039456918978</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.4663</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.003664456469842413</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.4781</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.003744255806963502</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.003930848584662352</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.5018</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.004219678665991037</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.5132</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.004238894094061721</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.5246</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.004334451376911946</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.004554103040494755</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.5474</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.0048857961871962</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.5583</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.004910845970528772</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.5692</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.005012697612681881</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.5801</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00525185439887174</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.005604994875460396</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.6014</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.005635928505620804</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.6118</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.005757627211000243</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.6223</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.006029185421437499</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.6327</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.006415071851696855</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.6426</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.006452709882655649</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.6525</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.006580956314269291</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.006887180348390777</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.6724</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.007315822215755877</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.6818</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.007383422619752745</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.6912</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.007558557240243566</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.7006</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.007938884067521725</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.008471995152153359</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.7189</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.008615132685034704</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.7279</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.008851569861769742</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.7368</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.00930708433650902</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.7457</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.009916274210938995</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.7541</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.01011246841165145</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01041915831778225</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.7709</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.01098712891673668</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.7793</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.01172640563134661</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.7872</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.01201718373209679</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.7951</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.01242125974532817</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.8031</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.01315402202242496</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.01410589805495488</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.8184</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0145561975629131</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.8258</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.01511903246115066</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.01610046289260615</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.8407</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.01736781143815702</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.8477</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.018065395195222</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.8546</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.01889054500197599</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.8616</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.02027000770742622</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.8685</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.02202245635956756</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.02309484082489572</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.8815</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.02435401655136808</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.8881</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.0263914512213053</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.8946</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.02898885812309763</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.9006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.03077586796769078</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.9067</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.03280459320172539</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.9128</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.03603063941690268</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.9188</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.04021927952223647</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.9245</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.04336066597857974</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.9301</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.04687399848473646</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.9358</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.05239777971905485</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.9414</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.05973252980575182</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.9467</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.06552282939570875</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.9519</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0716861743179199</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.9572</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.08121005796462319</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.9624</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.09360163113556014</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.9673</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.1022095774620871</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.9722</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.1088837602421538</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.9771</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1191865792989192</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.9819</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1282054633580721</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.9865</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1326422328336224</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1338313238487548</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.9955</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1849324183317466</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.2249469300314538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
